--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo1-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo1-Lgr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Rspo1</t>
+  </si>
+  <si>
+    <t>Lgr4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo1</t>
-  </si>
-  <si>
-    <t>Lgr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H2">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.519140333333333</v>
+        <v>1.834290333333333</v>
       </c>
       <c r="N2">
-        <v>4.557421</v>
+        <v>5.502871</v>
       </c>
       <c r="O2">
-        <v>0.09892575512374291</v>
+        <v>0.1177372815936135</v>
       </c>
       <c r="P2">
-        <v>0.0989257551237429</v>
+        <v>0.1177372815936135</v>
       </c>
       <c r="Q2">
-        <v>0.5624774062001111</v>
+        <v>1.445223902170889</v>
       </c>
       <c r="R2">
-        <v>5.062296655801</v>
+        <v>13.007015119538</v>
       </c>
       <c r="S2">
-        <v>0.09892575512374291</v>
+        <v>0.1177372815936135</v>
       </c>
       <c r="T2">
-        <v>0.0989257551237429</v>
+        <v>0.1177372815936135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H3">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>33.849725</v>
       </c>
       <c r="O3">
-        <v>0.7347597701322829</v>
+        <v>0.7242355134604062</v>
       </c>
       <c r="P3">
-        <v>0.7347597701322828</v>
+        <v>0.7242355134604062</v>
       </c>
       <c r="Q3">
-        <v>4.177736820580556</v>
+        <v>8.889983365394444</v>
       </c>
       <c r="R3">
-        <v>37.599631385225</v>
+        <v>80.00985028855</v>
       </c>
       <c r="S3">
-        <v>0.7347597701322829</v>
+        <v>0.7242355134604062</v>
       </c>
       <c r="T3">
-        <v>0.7347597701322828</v>
+        <v>0.7242355134604062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H4">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2312856666666666</v>
+        <v>2.383963333333333</v>
       </c>
       <c r="N4">
-        <v>0.6938569999999999</v>
+        <v>7.15189</v>
       </c>
       <c r="O4">
-        <v>0.01506122161478935</v>
+        <v>0.1530190489394624</v>
       </c>
       <c r="P4">
-        <v>0.01506122161478935</v>
+        <v>0.1530190489394624</v>
       </c>
       <c r="Q4">
-        <v>0.08563590803522222</v>
+        <v>1.878307227935556</v>
       </c>
       <c r="R4">
-        <v>0.7707231723169999</v>
+        <v>16.90476505142</v>
       </c>
       <c r="S4">
-        <v>0.01506122161478935</v>
+        <v>0.1530190489394624</v>
       </c>
       <c r="T4">
-        <v>0.01506122161478935</v>
+        <v>0.1530190489394624</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H5">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,96 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.268274333333333</v>
+        <v>0.07802466666666667</v>
       </c>
       <c r="N5">
-        <v>6.804822999999999</v>
+        <v>0.234074</v>
       </c>
       <c r="O5">
-        <v>0.1477090340695787</v>
+        <v>0.005008156006517959</v>
       </c>
       <c r="P5">
-        <v>0.1477090340695787</v>
+        <v>0.005008156006517959</v>
       </c>
       <c r="Q5">
-        <v>0.8398520107514443</v>
+        <v>0.06147506268577779</v>
       </c>
       <c r="R5">
-        <v>7.558668096762999</v>
+        <v>0.5532755641720001</v>
       </c>
       <c r="S5">
-        <v>0.1477090340695787</v>
+        <v>0.005008156006517959</v>
       </c>
       <c r="T5">
-        <v>0.1477090340695787</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.3702603333333334</v>
-      </c>
-      <c r="H6">
-        <v>1.110781</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.05442633333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.163279</v>
-      </c>
-      <c r="O6">
-        <v>0.003544219059606216</v>
-      </c>
-      <c r="P6">
-        <v>0.003544219059606216</v>
-      </c>
-      <c r="Q6">
-        <v>0.02015191232211111</v>
-      </c>
-      <c r="R6">
-        <v>0.181367210899</v>
-      </c>
-      <c r="S6">
-        <v>0.003544219059606216</v>
-      </c>
-      <c r="T6">
-        <v>0.003544219059606216</v>
+        <v>0.005008156006517959</v>
       </c>
     </row>
   </sheetData>
